--- a/JuneGH.xlsx
+++ b/JuneGH.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B829B896-16EB-4CF0-8505-DDBBB0EFB9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B1CA6F-5774-4EF0-B455-08D2C1998237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Geopotential height(hpm)</t>
+    <t>GH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,13 +79,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -366,7 +373,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -379,7 +386,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -435,8 +442,8 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>-999</v>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -603,8 +610,8 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>556</v>
+      <c r="B29" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
